--- a/data/georgia_census/adjara/qobuleti/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/qobuleti/healthcare_staff.xlsx
@@ -1384,13 +1384,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B0EF3DF-A5C4-423B-A519-08481F54D003}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6102B8CE-44CD-42B4-AD44-54C070BDCC55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4130694-FC8E-413A-BCCB-938EBA2F677E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA9DEF5-9565-4512-9180-8A2138F233B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA78B08C-DD08-473E-9398-56BB5182AD81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474A7895-D357-4C81-9696-32C3DD8DC3D6}"/>
 </file>